--- a/report.xlsx
+++ b/report.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60289964-3353-4C11-99FB-9418A41623FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA7E1B-0285-4361-9889-0F07932166CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="-103" windowWidth="22594" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>PESQ_Fair</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,66 @@
   </si>
   <si>
     <t>time-nosoftmax-attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRi_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PESQi_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOIi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PESQ_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDR_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOI_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PESQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PESQi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOIi_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,9 +279,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +306,41 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -278,20 +373,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,67 +687,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="102" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="28.35546875" customWidth="1"/>
+    <col min="1" max="1" width="8.640625" customWidth="1"/>
+    <col min="2" max="19" width="5.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.47</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.433</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" t="s">
         <v>27</v>
       </c>
@@ -641,16 +760,16 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.48499999999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.45500000000000002</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" t="s">
         <v>28</v>
       </c>
@@ -659,53 +778,53 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.45700000000000002</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.40899999999999997</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.54900000000000004</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.54400000000000004</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.51</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -713,16 +832,16 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.44600000000000001</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>32</v>
       </c>
@@ -731,16 +850,16 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0.41699999999999998</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.47</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" t="s">
         <v>33</v>
       </c>
@@ -749,16 +868,16 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0.53300000000000003</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" t="s">
         <v>34</v>
       </c>
@@ -767,35 +886,35 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.41699999999999998</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.69499999999999995</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -803,35 +922,35 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0.52100000000000002</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.42699999999999999</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.53500000000000003</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -839,16 +958,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.38800000000000001</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.42599999999999999</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" t="s">
         <v>40</v>
       </c>
@@ -857,134 +976,1344 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0.432</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.35799999999999998</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.44400000000000001</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0.41699999999999998</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>0.45100000000000001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>0.40100000000000002</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="T27:W28"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="1.299212598425197" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>